--- a/Hardware/Electrical Components/Sensor - Inline Pressure/BOM Honeywell Pressure.xlsx
+++ b/Hardware/Electrical Components/Sensor - Inline Pressure/BOM Honeywell Pressure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bao Nguyen\Desktop\OpenSLab\eDNA\Presssure Sensor\Honeywell ABPDANT030PG0D3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bao Nguyen\Documents\GitHub\eDNA\Hardware\Electrical Components\Sensor - Inline Pressure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AADB2E-7977-4C74-8FD4-078B74EFA5A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8F22CE-B1B0-41B2-BB3E-15D982D5F612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="2112" windowWidth="17280" windowHeight="9276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -57,22 +59,10 @@
     <t>Price</t>
   </si>
   <si>
-    <t>JST Connector 4pos Female 2.5mm</t>
-  </si>
-  <si>
     <t>Digikey</t>
   </si>
   <si>
-    <t>455-2249-ND</t>
-  </si>
-  <si>
     <t>through hole</t>
-  </si>
-  <si>
-    <t>JST Connector 4pos Male 2.5mm</t>
-  </si>
-  <si>
-    <t>455-2267-ND</t>
   </si>
   <si>
     <t>Honeywell Pressure Sensor ABPDANT030PG0D3</t>
@@ -423,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N9"/>
+  <dimension ref="B2:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,138 +453,86 @@
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="L3" s="2">
-        <v>0.21</v>
+        <v>15.06</v>
       </c>
       <c r="M3" s="2">
-        <v>0.21</v>
+        <v>15.06</v>
       </c>
       <c r="N3" s="2">
-        <f>M3*I3</f>
-        <v>0.21</v>
+        <f>I3*L3</f>
+        <v>15.06</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
+      <c r="J4">
+        <v>1206</v>
+      </c>
       <c r="K4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L4" s="2">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="M4" s="2">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="N4" s="2">
-        <v>0.1</v>
+        <f>I4*L4</f>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="2">
-        <v>15.06</v>
-      </c>
-      <c r="M5" s="2">
-        <v>15.06</v>
+        <f>1.75/3</f>
+        <v>0.58333333333333337</v>
       </c>
       <c r="N5" s="2">
-        <f>I5*L5</f>
-        <v>15.06</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1206</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0.19</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.19</v>
-      </c>
-      <c r="N6" s="2">
-        <f>I6*L6</f>
-        <v>0.19</v>
+        <f>1.75/3</f>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="2">
-        <f>1.75/3</f>
-        <v>0.58333333333333337</v>
+      <c r="L7" t="s">
+        <v>16</v>
       </c>
       <c r="N7" s="2">
-        <f>1.75/3</f>
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="2">
-        <f>SUM(N3:N7)</f>
-        <v>16.143333333333334</v>
+        <f>SUM(N3:N5)</f>
+        <v>15.833333333333334</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" xr:uid="{BBBF3638-33D9-40FE-AA32-D9EC73922361}"/>
-    <hyperlink ref="K4" r:id="rId2" xr:uid="{BA0FB4C8-1E6E-4898-8E22-1934644D2D4E}"/>
-    <hyperlink ref="K5" r:id="rId3" xr:uid="{E2318F6D-0FAE-4E43-8258-9B69204C2D05}"/>
-    <hyperlink ref="K6" r:id="rId4" xr:uid="{0F35C2E2-881D-47BD-84F0-E47E790C8B5C}"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{E2318F6D-0FAE-4E43-8258-9B69204C2D05}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{0F35C2E2-881D-47BD-84F0-E47E790C8B5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>